--- a/docs/PHAM_Journal_2025.xlsx
+++ b/docs/PHAM_Journal_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/esther_pham_studentfr_ch/Documents/4eme/TPI/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="13_ncr:1_{5F69E96A-935C-4229-A8D9-62578036D2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E584DB9-A7B2-4974-AC84-14532FCB0B65}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="13_ncr:1_{5F69E96A-935C-4229-A8D9-62578036D2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAC1B1A2-9C3E-43E7-8958-811352FFE160}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Journal!$A$6:$HI$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -160,10 +160,25 @@
     <t>Visite du supérieur : Discussion des schémas d'analyse et des modifications à faire. Validation des schémas</t>
   </si>
   <si>
-    <t>Conception des tests</t>
-  </si>
-  <si>
     <t>Les schémas m'ont pris énormement de temps sur le planning et maintenant je suis en retard. Il faut absolument que je rattrape ce retard le plus rapidement possible demain.</t>
+  </si>
+  <si>
+    <t>Création du diagramme de classes pour le client</t>
+  </si>
+  <si>
+    <t>Création du diagramme de classes pour le serveur</t>
+  </si>
+  <si>
+    <t>Visite du supérieur : Discussion des schémas de conception et modifications à faire</t>
+  </si>
+  <si>
+    <t>Création de la structure du serveur et connection à la DB</t>
+  </si>
+  <si>
+    <t>Conception des tests et documentation des tests</t>
+  </si>
+  <si>
+    <t>Création des différentes requêtes GET et documentation des schémas</t>
   </si>
 </sst>
 </file>
@@ -618,6 +633,14 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -626,137 +649,107 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1342,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:C24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1361,19 +1354,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="4">
         <v>151481</v>
       </c>
@@ -1403,109 +1396,109 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="35"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="44">
+      <c r="A7" s="18">
         <v>45796</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="43"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="43"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1518,67 +1511,67 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
+      <c r="A17" s="45">
         <v>45797</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="24"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="7">
         <v>2.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="8">
         <v>2.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="42" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="43"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
-      <c r="B20" s="18" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
-      <c r="B21" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="19"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="21"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1591,506 +1584,473 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="25" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="31">
+        <v>45798</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-    </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28">
-        <v>45798</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="7"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="8"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="8"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="8"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="8"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="19"/>
+      <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="9">
-        <f>SUM(D24:D28)</f>
+      <c r="D30" s="9">
+        <f>SUM(D24:D29)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="19"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="24"/>
+    </row>
+    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="31">
+        <v>45799</v>
+      </c>
+      <c r="B32" s="33"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="19"/>
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="9">
+        <f>SUM(D32:D36)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-    </row>
-    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28">
-        <v>45799</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
-      <c r="B36" s="2" t="s">
+    <row r="38" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="32"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+    </row>
+    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="31">
+        <v>45800</v>
+      </c>
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="19"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="19"/>
+      <c r="B44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="9">
-        <f>SUM(D31:D35)</f>
+      <c r="D44" s="9">
+        <f>SUM(D39:D43)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="29"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
-    </row>
-    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="28">
-        <v>45800</v>
-      </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="22"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="22"/>
-      <c r="B43" s="2" t="s">
+    <row r="45" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="32"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="30"/>
+    </row>
+    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="31">
+        <v>45803</v>
+      </c>
+      <c r="B46" s="33"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="19"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="19"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="19"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="19"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="19"/>
+      <c r="B51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="9">
-        <f>SUM(D38:D42)</f>
+      <c r="D51" s="9">
+        <f>SUM(D46:D50)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="29"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="32"/>
-    </row>
-    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="28">
-        <v>45803</v>
-      </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="7"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="22"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="22"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="22"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="22"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="22"/>
-      <c r="B50" s="2" t="s">
+    <row r="52" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="32"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="30"/>
+    </row>
+    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="31">
+        <v>45804</v>
+      </c>
+      <c r="B53" s="33"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="19"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="19"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="19"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="19"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="19"/>
+      <c r="B58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="9">
-        <f>SUM(D45:D49)</f>
+      <c r="D58" s="9">
+        <f>SUM(D53:D57)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="29"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="32"/>
-    </row>
-    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="28">
-        <v>45804</v>
-      </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="7"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="22"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="8"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="22"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="22"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="22"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="22"/>
-      <c r="B57" s="2" t="s">
+    <row r="59" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="32"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="30"/>
+    </row>
+    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="31">
+        <v>45805</v>
+      </c>
+      <c r="B60" s="33"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="19"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="19"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="19"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="19"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="19"/>
+      <c r="B65" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="9">
-        <f>SUM(D52:D56)</f>
+      <c r="D65" s="9">
+        <f>SUM(D60:D64)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="29"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="32"/>
-    </row>
-    <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="28">
-        <v>45805</v>
-      </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="7"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="22"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="8"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="22"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="22"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="8"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="22"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="8"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="22"/>
-      <c r="B64" s="2" t="s">
+    <row r="66" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="32"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="30"/>
+    </row>
+    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="31">
+        <v>45807</v>
+      </c>
+      <c r="B67" s="33"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="19"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="19"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="19"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="19"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="19"/>
+      <c r="B72" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="9">
-        <f>SUM(D59:D63)</f>
+      <c r="D72" s="9">
+        <f>SUM(D67:D71)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="29"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="32"/>
-    </row>
-    <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="28">
-        <v>45807</v>
-      </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="7"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="22"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="8"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="22"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="8"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="22"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="8"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="22"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="8"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="22"/>
-      <c r="B71" s="2" t="s">
+    <row r="73" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="19"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="24"/>
+    </row>
+    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="31">
+        <v>45810</v>
+      </c>
+      <c r="B74" s="33"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="19"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="19"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="8"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="19"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="19"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="19"/>
+      <c r="B79" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="9">
-        <f>SUM(D66:D70)</f>
+      <c r="D79" s="9">
+        <f>SUM(D74:D78)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="22"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="27"/>
-    </row>
-    <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="28">
-        <v>45810</v>
-      </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="7"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="22"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="8"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="22"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="8"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="22"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="8"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="22"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="22"/>
-      <c r="B78" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="9">
-        <f>SUM(D73:D77)</f>
+    <row r="80" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="32"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="30"/>
+    </row>
+    <row r="81" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="11"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="12">
+        <f>D15+D22+D30+D37+D44+D51+D58+D65+D72+D79</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="44" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="29"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="32"/>
-    </row>
-    <row r="80" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="11"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" s="12">
-        <f>D15+D22+D29+D36+D43+D50+D57+D64+D71+D78</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="A7:A16"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="A73:A79"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A81:D81"/>
+  <mergeCells count="79">
+    <mergeCell ref="A82:D82"/>
     <mergeCell ref="A17:A23"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
@@ -2098,100 +2058,156 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A32:A38"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="A74:A80"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D15">
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="D7:D15 D24:D30">
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D22">
-    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="16" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D29">
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D24)))</formula>
+  <conditionalFormatting sqref="D32:D37">
+    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D24)))</formula>
+    <cfRule type="containsText" dxfId="14" priority="20" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D36">
-    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D31)))</formula>
+  <conditionalFormatting sqref="D39:D44">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="20" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D31)))</formula>
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D39)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D43">
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D38)))</formula>
+  <conditionalFormatting sqref="D46:D51">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D38)))</formula>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D46)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45:D50">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D45)))</formula>
+  <conditionalFormatting sqref="D53:D58">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D45)))</formula>
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D53)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D57">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D52)))</formula>
+  <conditionalFormatting sqref="D60:D65">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D52)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D60)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59:D64">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D59)))</formula>
+  <conditionalFormatting sqref="D67:D72">
+    <cfRule type="containsText" dxfId="5" priority="15" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D59)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="16" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D67)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66:D71">
-    <cfRule type="containsText" dxfId="5" priority="15" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D66)))</formula>
+  <conditionalFormatting sqref="D74:D79">
+    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="16" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D66)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D74)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73:D78">
-    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D73)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D80">
+  <conditionalFormatting sqref="D81">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D80)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D81)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D80)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2203,8 +2219,8 @@
     <oddFooter>&amp;L&amp;8&amp;F&amp;R&amp;8Page &amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="51" max="16383" man="1"/>
-    <brk id="80" max="3" man="1"/>
+    <brk id="52" max="16383" man="1"/>
+    <brk id="81" max="3" man="1"/>
   </rowBreaks>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>

--- a/docs/PHAM_Journal_2025.xlsx
+++ b/docs/PHAM_Journal_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/esther_pham_studentfr_ch/Documents/4eme/TPI/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="13_ncr:1_{5F69E96A-935C-4229-A8D9-62578036D2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAC1B1A2-9C3E-43E7-8958-811352FFE160}"/>
+  <xr:revisionPtr revIDLastSave="288" documentId="13_ncr:1_{5F69E96A-935C-4229-A8D9-62578036D2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D0E4056-E3D5-4B8E-9976-56919EA60628}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Journal!$A$6:$HI$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$81</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Documentation du chapitre 2.1.3 (Processus d’entreprise concernés)</t>
   </si>
   <si>
-    <t>Pendant la visite des experts, on m'a expliqué qu'il faut que je documente bien et que ce soit complet. Il faut que je fasse attention aussi à bien remplir mon journal de travail et mon planning. Je pense que pour le planning, comme ils me l'ont fait remarquer, je dois faire attention pendant la création des services CRUD, cela va prendre plus de temps.</t>
-  </si>
-  <si>
     <t>Création desdiagrammes d'activités</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>Visite du supérieur : Discussion des schémas d'analyse et des modifications à faire. Validation des schémas</t>
   </si>
   <si>
-    <t>Les schémas m'ont pris énormement de temps sur le planning et maintenant je suis en retard. Il faut absolument que je rattrape ce retard le plus rapidement possible demain.</t>
-  </si>
-  <si>
     <t>Création du diagramme de classes pour le client</t>
   </si>
   <si>
@@ -172,13 +166,43 @@
     <t>Visite du supérieur : Discussion des schémas de conception et modifications à faire</t>
   </si>
   <si>
-    <t>Création de la structure du serveur et connection à la DB</t>
-  </si>
-  <si>
     <t>Conception des tests et documentation des tests</t>
   </si>
   <si>
     <t>Création des différentes requêtes GET et documentation des schémas</t>
+  </si>
+  <si>
+    <t>Pendant la visite des experts, on m'a expliqué qu'il faut que je documente bien et que ce soit complet. Il faut que je fasse attention aussi à bien remplir mon journal de travail et mon planning. Je pense que pour le planning, comme ils me l'ont fait remarquer, je dois faire attention pendant la création des services CRUD : cela va prendre plus de temps.</t>
+  </si>
+  <si>
+    <t>Les schémas m'ont pris énormément de temps sur le planning, et maintenant je suis en retard. Il faut absolument que je rattrape ce retard le plus rapidement possible demain.</t>
+  </si>
+  <si>
+    <t>J'ai réussi à rattraper mon retard, heureusement, et maintenant je peux me reconcentrer sur les tâches sans trop me stresser. Cela me soulage beaucoup, mais il faut que j'avance sur la documentation aussi, étant donné que je l'ai laissée de côté pour rattraper mon retard.</t>
+  </si>
+  <si>
+    <t>Visite du supérieur :  
+- Discussion des schémas de conception et modifications à faire
+- Discussion des requêtes GET
+- Discussion de la page admin</t>
+  </si>
+  <si>
+    <t>Création des différentes requêtes GET et tests</t>
+  </si>
+  <si>
+    <t>Création de la structure du serveur et connection à la DB ainsi que les tests</t>
+  </si>
+  <si>
+    <t>Création des pages d'affichage des articles</t>
+  </si>
+  <si>
+    <t>Test de l'affichage et de l'animation</t>
+  </si>
+  <si>
+    <t>L'animation des items du menu ne fonctionnait pas et renvoyait soit des erreurs, soit la page n'affichait rien.</t>
+  </si>
+  <si>
+    <t>Il fallait importer les fichiers CSS de la librairie Slick pour que l'animation fonctionne. Il fallait également appliquer l'animation sur la liste et non sur les sections du menu.</t>
   </si>
 </sst>
 </file>
@@ -564,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -633,145 +657,131 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1335,16 +1345,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:D31"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="3" width="31.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="28" style="1" customWidth="1"/>
@@ -1416,7 +1427,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+      <c r="A7" s="45">
         <v>45796</v>
       </c>
       <c r="B7" s="40" t="s">
@@ -1428,7 +1439,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="25" t="s">
         <v>11</v>
       </c>
@@ -1438,59 +1449,59 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="27" t="s">
-        <v>24</v>
+      <c r="A14" s="20"/>
+      <c r="B14" s="44" t="s">
+        <v>23</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="8">
@@ -1498,7 +1509,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1511,39 +1522,39 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+    </row>
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19">
+        <v>45797</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="45">
-        <v>45797</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="34"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="7">
         <v>2.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="21"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="24"/>
       <c r="D18" s="8">
         <v>2.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="8">
@@ -1551,27 +1562,27 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="21"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="24"/>
       <c r="D20" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="21"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="24"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1584,39 +1595,39 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31">
+      <c r="A24" s="30">
         <v>45798</v>
       </c>
-      <c r="B24" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="34"/>
+      <c r="B24" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="22"/>
       <c r="D24" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="21"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="24"/>
       <c r="D25" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="8">
@@ -1624,37 +1635,37 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="21"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="24"/>
       <c r="D27" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="21"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="24"/>
       <c r="D28" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="21"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="24"/>
       <c r="D29" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
@@ -1666,391 +1677,487 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
-    </row>
-    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31">
+    <row r="31" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="20"/>
+      <c r="B31" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="30">
         <v>45799</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="8"/>
+      <c r="B32" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="20"/>
+      <c r="B33" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="8"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="20"/>
+      <c r="B35" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="47"/>
+      <c r="D35" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="20"/>
+      <c r="B36" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="47"/>
+      <c r="D36" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="20"/>
+      <c r="B37" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="20"/>
+      <c r="B38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="9">
-        <f>SUM(D32:D36)</f>
+      <c r="D38" s="9">
+        <f>SUM(D32:D37)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="31"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="34"/>
+    </row>
+    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="30">
+        <v>45800</v>
+      </c>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="20"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="20"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="20"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="20"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="20"/>
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="9">
+        <f>SUM(D40:D44)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="32"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30"/>
-    </row>
-    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="31">
-        <v>45800</v>
-      </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
-      <c r="B44" s="2" t="s">
+    <row r="46" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="31"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="34"/>
+    </row>
+    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="30">
+        <v>45803</v>
+      </c>
+      <c r="B47" s="21"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="20"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="20"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="20"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="20"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="20"/>
+      <c r="B52" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="9">
-        <f>SUM(D39:D43)</f>
+      <c r="D52" s="9">
+        <f>SUM(D47:D51)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="32"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
-    </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="31">
-        <v>45803</v>
-      </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="19"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="19"/>
-      <c r="B51" s="2" t="s">
+    <row r="53" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="31"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="34"/>
+    </row>
+    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="30">
+        <v>45804</v>
+      </c>
+      <c r="B54" s="21"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="20"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="20"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="20"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="20"/>
+      <c r="B59" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="9">
-        <f>SUM(D46:D50)</f>
+      <c r="D59" s="9">
+        <f>SUM(D54:D58)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="32"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="30"/>
-    </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="31">
-        <v>45804</v>
-      </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="7"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="19"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="19"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="8"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="19"/>
-      <c r="B58" s="2" t="s">
+    <row r="60" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="31"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="34"/>
+    </row>
+    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="30">
+        <v>45805</v>
+      </c>
+      <c r="B61" s="21"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="20"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="20"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="20"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="20"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="20"/>
+      <c r="B66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="9">
-        <f>SUM(D53:D57)</f>
+      <c r="D66" s="9">
+        <f>SUM(D61:D65)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="32"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="30"/>
-    </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="31">
-        <v>45805</v>
-      </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="7"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="19"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="19"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="8"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="19"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="8"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="19"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="8"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="19"/>
-      <c r="B65" s="2" t="s">
+    <row r="67" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="31"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="34"/>
+    </row>
+    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="30">
+        <v>45807</v>
+      </c>
+      <c r="B68" s="21"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="20"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="20"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="20"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="20"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="20"/>
+      <c r="B73" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="9">
-        <f>SUM(D60:D64)</f>
+      <c r="D73" s="9">
+        <f>SUM(D68:D72)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="32"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="30"/>
-    </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="31">
-        <v>45807</v>
-      </c>
-      <c r="B67" s="33"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="7"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="19"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="8"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="19"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="8"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="19"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="8"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="19"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="19"/>
-      <c r="B72" s="2" t="s">
+    <row r="74" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="20"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="29"/>
+    </row>
+    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="30">
+        <v>45810</v>
+      </c>
+      <c r="B75" s="21"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="20"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="8"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="20"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="20"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="20"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="8"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="20"/>
+      <c r="B80" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="9">
-        <f>SUM(D67:D71)</f>
+      <c r="D80" s="9">
+        <f>SUM(D75:D79)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="19"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="24"/>
-    </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="31">
-        <v>45810</v>
-      </c>
-      <c r="B74" s="33"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="7"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="19"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="8"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="19"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="8"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="19"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="19"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="8"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="19"/>
-      <c r="B79" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="9">
-        <f>SUM(D74:D78)</f>
+    <row r="81" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="31"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="34"/>
+    </row>
+    <row r="82" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="11"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="12">
+        <f>D15+D22+D30+D38+D45+D52+D59+D66+D73+D80</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="32"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="30"/>
-    </row>
-    <row r="81" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="11"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" s="12">
-        <f>D15+D22+D30+D37+D44+D51+D58+D65+D72+D79</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="A82:D82"/>
+  <mergeCells count="80">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="A61:A67"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A47:A53"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A83:D83"/>
     <mergeCell ref="A17:A23"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
@@ -2058,156 +2165,85 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="A32:A39"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A67:A73"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="A74:A80"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A7:A16"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D15 D24:D30">
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="D7:D15 D24:D30 D32:D38">
+    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="16" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D22">
-    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="14" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:D37">
-    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D32)))</formula>
+  <conditionalFormatting sqref="D40:D45">
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="20" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D32)))</formula>
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D40)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39:D44">
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D39)))</formula>
+  <conditionalFormatting sqref="D47:D52">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D39)))</formula>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46:D51">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D46)))</formula>
+  <conditionalFormatting sqref="D54:D59">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D46)))</formula>
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53:D58">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D53)))</formula>
+  <conditionalFormatting sqref="D61:D66">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D53)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D61)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60:D65">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D60)))</formula>
+  <conditionalFormatting sqref="D68:D73">
+    <cfRule type="containsText" dxfId="5" priority="15" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D60)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="16" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D68)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67:D72">
-    <cfRule type="containsText" dxfId="5" priority="15" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D67)))</formula>
+  <conditionalFormatting sqref="D75:D80">
+    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="16" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D67)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D75)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74:D79">
-    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D74)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D81">
+  <conditionalFormatting sqref="D82">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D81)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D82)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D81)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2219,8 +2255,8 @@
     <oddFooter>&amp;L&amp;8&amp;F&amp;R&amp;8Page &amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="52" max="16383" man="1"/>
-    <brk id="81" max="3" man="1"/>
+    <brk id="53" max="16383" man="1"/>
+    <brk id="82" max="3" man="1"/>
   </rowBreaks>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>

--- a/docs/PHAM_Journal_2025.xlsx
+++ b/docs/PHAM_Journal_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/esther_pham_studentfr_ch/Documents/4eme/TPI/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="288" documentId="13_ncr:1_{5F69E96A-935C-4229-A8D9-62578036D2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D0E4056-E3D5-4B8E-9976-56919EA60628}"/>
+  <xr:revisionPtr revIDLastSave="326" documentId="13_ncr:1_{5F69E96A-935C-4229-A8D9-62578036D2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E87313B-8E4D-452E-86E2-254D99DFCD58}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Journal!$A$6:$HI$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -203,6 +203,20 @@
   </si>
   <si>
     <t>Il fallait importer les fichiers CSS de la librairie Slick pour que l'animation fonctionne. Il fallait également appliquer l'animation sur la liste et non sur les sections du menu.</t>
+  </si>
+  <si>
+    <t>Gestion des animations entre les pages et de la relecture des données</t>
+  </si>
+  <si>
+    <t>Je suis contente maintenant que mon animation fonctionne, il me reste encore a coder le fait d'afficher plusieur élément ensemble sur une page. Il faut aussi que je gère la relecture des données par rapport à la valeur donnée dans la base de données et que j'arrange l'affichage pour qu'il corresponde aux maquettes.</t>
+  </si>
+  <si>
+    <t>Visite du supérieur :
+- Discussion de l'avancé
+- Améliorations du code et suggestions d'améliorations</t>
+  </si>
+  <si>
+    <t>Gestion du login et de la securité des entrypoints et documentation</t>
   </si>
 </sst>
 </file>
@@ -312,13 +326,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9966"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FFFF9679"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -649,12 +663,112 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -665,115 +779,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -781,29 +803,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <strike val="0"/>
@@ -982,6 +982,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9679"/>
+      <color rgb="FFFF9B9B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1345,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:D39"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1365,19 +1371,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="4">
         <v>151481</v>
       </c>
@@ -1399,117 +1405,117 @@
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45">
+      <c r="A7" s="17">
         <v>45796</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="41"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="44" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1522,67 +1528,67 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
+      <c r="A17" s="44">
         <v>45797</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="7">
         <v>2.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="8">
         <v>2.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="26"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1595,77 +1601,77 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="27" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="30">
         <v>45798</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="22"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="23" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="24"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="25" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="26"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="23" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="24"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="23" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="24"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="23" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="24"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
@@ -1678,422 +1684,499 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="27" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="30">
         <v>45799</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="22"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="44" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="26"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="23" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="24"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="8">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="46" t="s">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="18"/>
+      <c r="B36" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="8">
+      <c r="C36" s="49"/>
+      <c r="D36" s="8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="46" t="s">
+    <row r="37" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="18"/>
+      <c r="B37" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="8">
+      <c r="C37" s="46"/>
+      <c r="D37" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="23" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="18"/>
+      <c r="B38" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="8">
+      <c r="C38" s="20"/>
+      <c r="D38" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="2" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="18"/>
+      <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="9">
-        <f>SUM(D32:D37)</f>
+      <c r="D39" s="9">
+        <f>SUM(D32:D38)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="34"/>
-    </row>
-    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="30">
+    <row r="40" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="31"/>
+      <c r="B40" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="28"/>
+      <c r="D40" s="29"/>
+    </row>
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="30">
         <v>45800</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="7"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="8"/>
+      <c r="B41" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="18"/>
+      <c r="B42" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="8"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="2" t="s">
+      <c r="A44" s="18"/>
+      <c r="B44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="9">
-        <f>SUM(D40:D44)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="31"/>
+      <c r="D44" s="9">
+        <f>SUM(D41:D43)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="31"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
+    </row>
+    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="30">
+        <v>45803</v>
+      </c>
       <c r="B46" s="32"/>
       <c r="C46" s="33"/>
-      <c r="D46" s="34"/>
-    </row>
-    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="30">
-        <v>45803</v>
-      </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="7"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="18"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="20"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="24"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
       <c r="D48" s="8"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="20"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="24"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="20"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="2" t="s">
+      <c r="A51" s="18"/>
+      <c r="B51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="9">
-        <f>SUM(D47:D51)</f>
+      <c r="D51" s="9">
+        <f>SUM(D46:D50)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="31"/>
+    <row r="52" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="31"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="29"/>
+    </row>
+    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="30">
+        <v>45804</v>
+      </c>
       <c r="B53" s="32"/>
       <c r="C53" s="33"/>
-      <c r="D53" s="34"/>
-    </row>
-    <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="30">
-        <v>45804</v>
-      </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="7"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="18"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="24"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="20"/>
       <c r="D55" s="8"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="24"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="20"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="24"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="20"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="20"/>
-      <c r="B59" s="2" t="s">
+      <c r="A58" s="18"/>
+      <c r="B58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="9">
-        <f>SUM(D54:D58)</f>
+      <c r="D58" s="9">
+        <f>SUM(D53:D57)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="31"/>
+    <row r="59" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="31"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="29"/>
+    </row>
+    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="30">
+        <v>45805</v>
+      </c>
       <c r="B60" s="32"/>
       <c r="C60" s="33"/>
-      <c r="D60" s="34"/>
-    </row>
-    <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="30">
-        <v>45805</v>
-      </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="7"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="18"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="8"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="24"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="20"/>
       <c r="D62" s="8"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="20"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="24"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="20"/>
       <c r="D63" s="8"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="20"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="24"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="20"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="8"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="20"/>
-      <c r="B66" s="2" t="s">
+      <c r="A65" s="18"/>
+      <c r="B65" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="9">
-        <f>SUM(D61:D65)</f>
+      <c r="D65" s="9">
+        <f>SUM(D60:D64)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="31"/>
+    <row r="66" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="31"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="29"/>
+    </row>
+    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="30">
+        <v>45807</v>
+      </c>
       <c r="B67" s="32"/>
       <c r="C67" s="33"/>
-      <c r="D67" s="34"/>
-    </row>
-    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="30">
-        <v>45807</v>
-      </c>
-      <c r="B68" s="21"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="7"/>
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="18"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="20"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="24"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="8"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="20"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="24"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="8"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="20"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="24"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="20"/>
       <c r="D71" s="8"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="20"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="8"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="20"/>
-      <c r="B73" s="2" t="s">
+      <c r="A72" s="18"/>
+      <c r="B72" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="9">
-        <f>SUM(D68:D72)</f>
+      <c r="D72" s="9">
+        <f>SUM(D67:D71)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="20"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="29"/>
-    </row>
-    <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="30">
+    <row r="73" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="18"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="23"/>
+    </row>
+    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="30">
         <v>45810</v>
       </c>
-      <c r="B75" s="21"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="7"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="18"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="8"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="20"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="24"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="20"/>
       <c r="D76" s="8"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="20"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="24"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="20"/>
       <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="20"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="24"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="20"/>
       <c r="D78" s="8"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="20"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="8"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="20"/>
-      <c r="B80" s="2" t="s">
+      <c r="A79" s="18"/>
+      <c r="B79" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="9">
-        <f>SUM(D75:D79)</f>
+      <c r="D79" s="9">
+        <f>SUM(D74:D78)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="31"/>
-      <c r="B81" s="32"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="34"/>
-    </row>
-    <row r="82" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="11"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="3" t="s">
+    <row r="80" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="31"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="29"/>
+    </row>
+    <row r="81" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="11"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="12">
-        <f>D15+D22+D30+D38+D45+D52+D59+D66+D73+D80</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="18" t="s">
+      <c r="D81" s="12">
+        <f>D15+D22+D30+D39+D44+D51+D58+D65+D72+D79</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="B35:C35"/>
+  <mergeCells count="79">
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="A74:A80"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="A7:A16"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B16:D16"/>
@@ -2106,144 +2189,70 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="A61:A67"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A47:A53"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="A40:A46"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D15 D24:D30 D32:D38">
-    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="D7:D15 D24:D30 D32:D39 D41:D44">
+    <cfRule type="containsText" dxfId="15" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="14" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D22">
-    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="12" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D45">
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D40)))</formula>
+  <conditionalFormatting sqref="D46:D51">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D40)))</formula>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D46)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D52">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D47)))</formula>
+  <conditionalFormatting sqref="D53:D58">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D47)))</formula>
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D53)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D59">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D54)))</formula>
+  <conditionalFormatting sqref="D60:D65">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D54)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D60)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D61:D66">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D61)))</formula>
+  <conditionalFormatting sqref="D67:D72">
+    <cfRule type="containsText" dxfId="5" priority="15" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D61)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="16" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D67)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68:D73">
-    <cfRule type="containsText" dxfId="5" priority="15" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D68)))</formula>
+  <conditionalFormatting sqref="D74:D79">
+    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="16" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D68)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D74)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D75:D80">
-    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D75)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D75)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D82">
+  <conditionalFormatting sqref="D81">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D82)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D81)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D82)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2255,8 +2264,8 @@
     <oddFooter>&amp;L&amp;8&amp;F&amp;R&amp;8Page &amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="53" max="16383" man="1"/>
-    <brk id="82" max="3" man="1"/>
+    <brk id="52" max="16383" man="1"/>
+    <brk id="81" max="3" man="1"/>
   </rowBreaks>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>

--- a/docs/PHAM_Journal_2025.xlsx
+++ b/docs/PHAM_Journal_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/esther_pham_studentfr_ch/Documents/4eme/TPI/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="326" documentId="13_ncr:1_{5F69E96A-935C-4229-A8D9-62578036D2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E87313B-8E4D-452E-86E2-254D99DFCD58}"/>
+  <xr:revisionPtr revIDLastSave="352" documentId="13_ncr:1_{5F69E96A-935C-4229-A8D9-62578036D2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAFCA768-46DA-4DC2-953B-D0CF08FD5C54}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Journal!$A$6:$HI$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$81</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -154,9 +154,6 @@
     <t>Création des maquettes</t>
   </si>
   <si>
-    <t>Visite du supérieur : Discussion des schémas d'analyse et des modifications à faire. Validation des schémas</t>
-  </si>
-  <si>
     <t>Création du diagramme de classes pour le client</t>
   </si>
   <si>
@@ -217,6 +214,23 @@
   </si>
   <si>
     <t>Gestion du login et de la securité des entrypoints et documentation</t>
+  </si>
+  <si>
+    <t>Il faut que je complète la documentation le plus vite possible. Je vais essayer de finir rapidement le code la semaine prochaine pour pouvoir avoir le temps de tout documenté.</t>
+  </si>
+  <si>
+    <t>Visite du supérieur :
+- Discussion de l'avancé
+- Améliorations du code et suggestions d'améliorations
+- Modification de la documentation</t>
+  </si>
+  <si>
+    <t>Création des requêtes CRUD</t>
+  </si>
+  <si>
+    <t>Visite du supérieur : 
+- Discussion des schémas d'analyse et des modifications à faire
+- Validation des schémas</t>
   </si>
 </sst>
 </file>
@@ -667,110 +681,122 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -784,18 +810,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -803,29 +817,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1351,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1405,7 +1397,7 @@
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="17" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="16" t="s">
@@ -1433,7 +1425,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
+      <c r="A7" s="45">
         <v>45796</v>
       </c>
       <c r="B7" s="39" t="s">
@@ -1445,77 +1437,77 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1528,15 +1520,15 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="44">
+      <c r="A17" s="47">
         <v>45797</v>
       </c>
       <c r="B17" s="32" t="s">
@@ -1548,47 +1540,47 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="8">
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="25"/>
+    <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="30"/>
+      <c r="B19" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="24"/>
       <c r="D19" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="20"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="20"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="19"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1601,19 +1593,19 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30">
+      <c r="A24" s="29">
         <v>45798</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="33"/>
       <c r="D24" s="7">
@@ -1621,57 +1613,57 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="20"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="19"/>
       <c r="D25" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="25"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="24"/>
       <c r="D26" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19" t="s">
+      <c r="A27" s="30"/>
+      <c r="B27" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="20"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="20"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="19"/>
       <c r="D28" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="20"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="19"/>
       <c r="D29" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
@@ -1684,19 +1676,19 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="30">
+      <c r="A32" s="29">
         <v>45799</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="7">
@@ -1704,67 +1696,67 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="25"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="24"/>
       <c r="D33" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="20"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="19"/>
       <c r="D34" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="20"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="19"/>
       <c r="D35" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="49"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="44"/>
       <c r="D36" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="46"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="49"/>
       <c r="D37" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="20"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="19"/>
       <c r="D38" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1778,46 +1770,46 @@
     </row>
     <row r="40" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31"/>
-      <c r="B40" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="29"/>
+      <c r="B40" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30">
+      <c r="A41" s="29">
         <v>45800</v>
       </c>
-      <c r="B41" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="20"/>
+      <c r="B41" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="19"/>
       <c r="D41" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="25"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="24"/>
       <c r="D42" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="20"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="19"/>
       <c r="D43" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
+      <c r="A44" s="30"/>
       <c r="B44" s="2" t="s">
         <v>6</v>
       </c>
@@ -1831,287 +1823,289 @@
     </row>
     <row r="45" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="31"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
+      <c r="B45" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="28"/>
     </row>
     <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="30">
+      <c r="A46" s="29">
         <v>45803</v>
       </c>
-      <c r="B46" s="32"/>
+      <c r="B46" s="32" t="s">
+        <v>43</v>
+      </c>
       <c r="C46" s="33"/>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="8"/>
+      <c r="D46" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="30"/>
+      <c r="B47" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="8"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="8">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
-      <c r="B51" s="2" t="s">
+      <c r="A49" s="30"/>
+      <c r="B49" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="9">
-        <f>SUM(D46:D50)</f>
+      <c r="D49" s="9">
+        <f>SUM(D46:D48)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="31"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="28"/>
+    </row>
+    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="29">
+        <v>45804</v>
+      </c>
+      <c r="B51" s="32"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="30"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="30"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="30"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="30"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="30"/>
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="9">
+        <f>SUM(D51:D55)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="31"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="29"/>
-    </row>
-    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="30">
-        <v>45804</v>
-      </c>
-      <c r="B53" s="32"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="7"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="18"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="8"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
-      <c r="B58" s="2" t="s">
+    <row r="57" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="31"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="28"/>
+    </row>
+    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="29">
+        <v>45805</v>
+      </c>
+      <c r="B58" s="32"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="30"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="30"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="30"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="30"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="30"/>
+      <c r="B63" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="9">
-        <f>SUM(D53:D57)</f>
+      <c r="D63" s="9">
+        <f>SUM(D58:D62)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="31"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="29"/>
-    </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="30">
-        <v>45805</v>
-      </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="7"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="18"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="18"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="8"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="18"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="8"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="8"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="18"/>
-      <c r="B65" s="2" t="s">
+    <row r="64" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="31"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="28"/>
+    </row>
+    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="29">
+        <v>45807</v>
+      </c>
+      <c r="B65" s="32"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="30"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="30"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="30"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="30"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="30"/>
+      <c r="B70" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="9">
-        <f>SUM(D60:D64)</f>
+      <c r="D70" s="9">
+        <f>SUM(D65:D69)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="31"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="29"/>
-    </row>
-    <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="30">
-        <v>45807</v>
-      </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="7"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="18"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="8"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="18"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="8"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="18"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="8"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="18"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="18"/>
-      <c r="B72" s="2" t="s">
+    <row r="71" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="30"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="22"/>
+    </row>
+    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="29">
+        <v>45810</v>
+      </c>
+      <c r="B72" s="32"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="30"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="30"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="30"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="30"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="8"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="30"/>
+      <c r="B77" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="9">
-        <f>SUM(D67:D71)</f>
+      <c r="D77" s="9">
+        <f>SUM(D72:D76)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="18"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="23"/>
-    </row>
-    <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="30">
-        <v>45810</v>
-      </c>
-      <c r="B74" s="32"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="7"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="18"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="8"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="18"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="8"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="18"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="18"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="8"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="18"/>
-      <c r="B79" s="2" t="s">
-        <v>6</v>
-      </c>
+    <row r="78" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="31"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="28"/>
+    </row>
+    <row r="79" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="11"/>
+      <c r="B79" s="10"/>
       <c r="C79" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="9">
-        <f>SUM(D74:D78)</f>
+        <v>7</v>
+      </c>
+      <c r="D79" s="12">
+        <f>D15+D22+D30+D39+D44+D49+D56+D63+D70+D77</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="46" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="31"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="29"/>
-    </row>
-    <row r="81" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="11"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" s="12">
-        <f>D15+D22+D30+D39+D44+D51+D58+D65+D72+D79</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="46"/>
+      <c r="D80" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="A82:D82"/>
+  <mergeCells count="77">
+    <mergeCell ref="A80:D80"/>
     <mergeCell ref="A17:A23"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
@@ -2141,118 +2135,108 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="A65:A71"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="A46:A50"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A53:A59"/>
-    <mergeCell ref="A74:A80"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A7:A16"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B27:C27"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D15 D24:D30 D32:D39 D41:D44">
-    <cfRule type="containsText" dxfId="15" priority="23" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="D7:D15 D24:D30 D32:D39 D41:D44 D46:D49">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="12" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D22">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="10" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46:D51">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D46)))</formula>
+  <conditionalFormatting sqref="D51:D56">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D46)))</formula>
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D51)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53:D58">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D53)))</formula>
+  <conditionalFormatting sqref="D58:D63">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D53)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D58)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D60:D65">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D60)))</formula>
+  <conditionalFormatting sqref="D65:D70">
+    <cfRule type="containsText" dxfId="5" priority="15" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D60)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="16" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D65)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D67:D72">
-    <cfRule type="containsText" dxfId="5" priority="15" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D67)))</formula>
+  <conditionalFormatting sqref="D72:D77">
+    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="16" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D67)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D72)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74:D79">
-    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D74)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D74)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D81">
+  <conditionalFormatting sqref="D79">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D81)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D79)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D81)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2264,8 +2248,8 @@
     <oddFooter>&amp;L&amp;8&amp;F&amp;R&amp;8Page &amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="52" max="16383" man="1"/>
-    <brk id="81" max="3" man="1"/>
+    <brk id="50" max="16383" man="1"/>
+    <brk id="79" max="3" man="1"/>
   </rowBreaks>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>

--- a/docs/PHAM_Journal_2025.xlsx
+++ b/docs/PHAM_Journal_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/esther_pham_studentfr_ch/Documents/4eme/TPI/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="352" documentId="13_ncr:1_{5F69E96A-935C-4229-A8D9-62578036D2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAFCA768-46DA-4DC2-953B-D0CF08FD5C54}"/>
+  <xr:revisionPtr revIDLastSave="394" documentId="13_ncr:1_{5F69E96A-935C-4229-A8D9-62578036D2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6ECEC578-5FE5-43E7-A55A-8B3C12B21FB5}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Journal!$A$6:$HI$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$79</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -193,15 +193,6 @@
     <t>Création des pages d'affichage des articles</t>
   </si>
   <si>
-    <t>Test de l'affichage et de l'animation</t>
-  </si>
-  <si>
-    <t>L'animation des items du menu ne fonctionnait pas et renvoyait soit des erreurs, soit la page n'affichait rien.</t>
-  </si>
-  <si>
-    <t>Il fallait importer les fichiers CSS de la librairie Slick pour que l'animation fonctionne. Il fallait également appliquer l'animation sur la liste et non sur les sections du menu.</t>
-  </si>
-  <si>
     <t>Gestion des animations entre les pages et de la relecture des données</t>
   </si>
   <si>
@@ -225,12 +216,47 @@
 - Modification de la documentation</t>
   </si>
   <si>
-    <t>Création des requêtes CRUD</t>
-  </si>
-  <si>
     <t>Visite du supérieur : 
 - Discussion des schémas d'analyse et des modifications à faire
 - Validation des schémas</t>
+  </si>
+  <si>
+    <t>La documentation est toujours à compléter, je suis un peu stressée pour la prochaine visite des experts, mais je pense que ça devrait aller.</t>
+  </si>
+  <si>
+    <t>Problème 1 : L'animation des items du menu ne fonctionnait pas et renvoyait soit des erreurs, soit la page n'affichait rien.</t>
+  </si>
+  <si>
+    <t>Solution 1 : Il fallait importer les fichiers CSS de la librairie Slick pour que l'animation fonctionne. Il fallait également appliquer l'animation sur la liste et non sur les sections du menu.</t>
+  </si>
+  <si>
+    <t>Création des requêtes CRUD et de la page de modification des articles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visite des experts :
+- Les 2 experts présent, M. Waelti et M. Roubaty
+- Rajouter un bout de codes pour les travaux préparatoires
+- Documenter les problèmes ayant un grand impact sur le projet
+- Lors de la remise du projet tout donner, fichier db, annexes, projet, docs et autres
+- Projet doit pouvoir run en local
+- Donner lien accès au projet sur srv web (https://...)
+- Rajouter les croix dans le planning pour les activités faites en même temps
+</t>
+  </si>
+  <si>
+    <t>Création des requêtes CRUD, de la page de modification des articles et test fonctionnels</t>
+  </si>
+  <si>
+    <t>Gestion du login et de la securité des entrypoints et tests fonctionnels</t>
+  </si>
+  <si>
+    <t>Test de l'animation et du rechargement de la page</t>
+  </si>
+  <si>
+    <t>Test de l'affichage et de l'animation et tests</t>
   </si>
 </sst>
 </file>
@@ -685,6 +711,26 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -693,6 +739,14 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -705,86 +759,74 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -795,51 +837,13 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1343,10 +1347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1363,19 +1367,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="4">
         <v>151481</v>
       </c>
@@ -1405,109 +1409,109 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="36"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45">
+      <c r="A7" s="49">
         <v>45796</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="40"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1520,67 +1524,67 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="20" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="47">
+      <c r="A17" s="19">
         <v>45797</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="33"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="7">
         <v>2.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="8">
         <v>2.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="C19" s="26"/>
       <c r="D19" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="18" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1593,77 +1597,77 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="20" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="29">
+      <c r="A24" s="30">
         <v>45798</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="33"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="18" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="19"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="23" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="24"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="18" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="19"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="18" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
@@ -1676,87 +1680,87 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
-      <c r="B31" s="20" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="29">
+      <c r="A32" s="30">
         <v>45799</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="33"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="24"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
-      <c r="B34" s="18" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="19"/>
+      <c r="C34" s="24"/>
       <c r="D34" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
-      <c r="B35" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="19"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="24"/>
       <c r="D35" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
-      <c r="B36" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="44"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="48"/>
       <c r="D36" s="8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
-      <c r="B37" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="49"/>
+    <row r="37" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="20"/>
+      <c r="B37" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="33"/>
       <c r="D37" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
-      <c r="B38" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="19"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="24"/>
       <c r="D38" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1770,342 +1774,414 @@
     </row>
     <row r="40" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31"/>
-      <c r="B40" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="28"/>
+      <c r="B40" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="29">
+      <c r="A41" s="30">
         <v>45800</v>
       </c>
-      <c r="B41" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="19"/>
+      <c r="B41" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="24"/>
       <c r="D41" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="30"/>
-      <c r="B42" s="25" t="s">
-        <v>42</v>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="20"/>
+      <c r="B42" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="C42" s="24"/>
       <c r="D42" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="20"/>
+      <c r="B43" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="26"/>
+      <c r="D43" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="30"/>
-      <c r="B43" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="8">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="20"/>
+      <c r="B44" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="30"/>
-      <c r="B44" s="2" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="20"/>
+      <c r="B45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="9">
-        <f>SUM(D41:D43)</f>
+      <c r="D45" s="9">
+        <f>SUM(D41:D44)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="31"/>
-      <c r="B45" s="26" t="s">
+    <row r="46" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="31"/>
+      <c r="B46" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="35"/>
+      <c r="D46" s="36"/>
+    </row>
+    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="30">
+        <v>45803</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="22"/>
+      <c r="D47" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="20"/>
+      <c r="B48" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="20"/>
+      <c r="B49" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="20"/>
+      <c r="B50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="9">
+        <f>SUM(D47:D49)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="31"/>
+      <c r="B51" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="28"/>
-    </row>
-    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="29">
-        <v>45803</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="7">
+      <c r="C51" s="35"/>
+      <c r="D51" s="36"/>
+    </row>
+    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="30">
+        <v>45804</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="22"/>
+      <c r="D52" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="30"/>
-      <c r="B47" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="8">
+    <row r="53" spans="1:4" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="20"/>
+      <c r="B53" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="26"/>
+      <c r="D53" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="30"/>
-      <c r="B48" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="8">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="20"/>
+      <c r="B54" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="8">
         <v>4.5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="30"/>
-      <c r="B49" s="2" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="20"/>
+      <c r="B55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="9">
-        <f>SUM(D46:D48)</f>
+      <c r="D55" s="9">
+        <f>SUM(D52:D54)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="31"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="28"/>
-    </row>
-    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="29">
-        <v>45804</v>
-      </c>
-      <c r="B51" s="32"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="30"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="30"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="8"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="30"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="30"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="8"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="30"/>
-      <c r="B56" s="2" t="s">
+    <row r="56" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="31"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="36"/>
+    </row>
+    <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="30">
+        <v>45805</v>
+      </c>
+      <c r="B57" s="21"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="20"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="20"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="20"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="20"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="20"/>
+      <c r="B62" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="9">
-        <f>SUM(D51:D55)</f>
+      <c r="D62" s="9">
+        <f>SUM(D57:D61)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="31"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="28"/>
-    </row>
-    <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="29">
-        <v>45805</v>
-      </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="7"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="30"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="8"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="30"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="8"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="30"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="30"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="8"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="30"/>
-      <c r="B63" s="2" t="s">
+    <row r="63" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="31"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="36"/>
+    </row>
+    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="30">
+        <v>45807</v>
+      </c>
+      <c r="B64" s="21"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="20"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="20"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="20"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="20"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="20"/>
+      <c r="B69" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="9">
-        <f>SUM(D58:D62)</f>
+      <c r="D69" s="9">
+        <f>SUM(D64:D68)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="31"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="28"/>
-    </row>
-    <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="29">
-        <v>45807</v>
-      </c>
-      <c r="B65" s="32"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="7"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="30"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="8"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="30"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="8"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="30"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="8"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="30"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="8"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="30"/>
-      <c r="B70" s="2" t="s">
+    <row r="70" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="20"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="29"/>
+    </row>
+    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="30">
+        <v>45810</v>
+      </c>
+      <c r="B71" s="21"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="20"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="20"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="20"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="20"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="20"/>
+      <c r="B76" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="9">
-        <f>SUM(D65:D69)</f>
+      <c r="D76" s="9">
+        <f>SUM(D71:D75)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="30"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="22"/>
-    </row>
-    <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="29">
-        <v>45810</v>
-      </c>
-      <c r="B72" s="32"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="7"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="30"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="8"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="30"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="8"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="30"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="8"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="30"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="8"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="30"/>
-      <c r="B77" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="9">
-        <f>SUM(D72:D76)</f>
+    <row r="77" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="31"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="36"/>
+    </row>
+    <row r="78" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="11"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="12">
+        <f>D15+D22+D30+D39+D45+D50+D55+D62+D69+D76</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="31"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="28"/>
-    </row>
-    <row r="79" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="11"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" s="12">
-        <f>D15+D22+D30+D39+D44+D49+D56+D63+D70+D77</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="46"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="46"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="A80:D80"/>
+  <mergeCells count="76">
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="A79:D79"/>
     <mergeCell ref="A17:A23"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
@@ -2121,122 +2197,53 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A7:A16"/>
-    <mergeCell ref="A65:A71"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="A51:A57"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="A58:A64"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B27:C27"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D15 D24:D30 D32:D39 D41:D44 D46:D49">
-    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="D7:D15 D24:D30 D32:D39 D41:D45 D47:D50 D52:D55">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="10" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D22">
-    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="8" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D56">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D51)))</formula>
+  <conditionalFormatting sqref="D57:D62">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D51)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58:D63">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D58)))</formula>
+  <conditionalFormatting sqref="D64:D69">
+    <cfRule type="containsText" dxfId="5" priority="15" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D58)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="16" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D64)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65:D70">
-    <cfRule type="containsText" dxfId="5" priority="15" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D65)))</formula>
+  <conditionalFormatting sqref="D71:D76">
+    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="16" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D65)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D71)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72:D77">
-    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D72)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D79">
+  <conditionalFormatting sqref="D78">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D79)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D78)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D79)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2248,8 +2255,8 @@
     <oddFooter>&amp;L&amp;8&amp;F&amp;R&amp;8Page &amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="50" max="16383" man="1"/>
-    <brk id="79" max="3" man="1"/>
+    <brk id="51" max="16383" man="1"/>
+    <brk id="78" max="3" man="1"/>
   </rowBreaks>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>

--- a/docs/PHAM_Journal_2025.xlsx
+++ b/docs/PHAM_Journal_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/esther_pham_studentfr_ch/Documents/4eme/TPI/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="394" documentId="13_ncr:1_{5F69E96A-935C-4229-A8D9-62578036D2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6ECEC578-5FE5-43E7-A55A-8B3C12B21FB5}"/>
+  <xr:revisionPtr revIDLastSave="412" documentId="13_ncr:1_{5F69E96A-935C-4229-A8D9-62578036D2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B42F18E-DA44-4890-B242-8CF5B7573BC9}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Journal!$A$6:$HI$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -257,6 +257,15 @@
   </si>
   <si>
     <t>Test de l'affichage et de l'animation et tests</t>
+  </si>
+  <si>
+    <t>Après la visite des experts je suis rassuré pour mon avançée. Je dois quand même encore bien avançé dans le code et la documentation. Il faut que je finisse le code demain.</t>
+  </si>
+  <si>
+    <t>Création des requêtes CRUD et de la page de modification des articles et tests</t>
+  </si>
+  <si>
+    <t>Création des requêtes CRUD et création de la page d'ajout/suppression des articles</t>
   </si>
 </sst>
 </file>
@@ -711,6 +720,118 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -719,153 +840,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1347,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1367,19 +1354,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="4">
         <v>151481</v>
       </c>
@@ -1409,109 +1396,109 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49">
+      <c r="A7" s="45">
         <v>45796</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="43"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="46" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1524,67 +1511,67 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
+      <c r="A17" s="47">
         <v>45797</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="7">
         <v>2.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="8">
         <v>2.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="26"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1597,77 +1584,77 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="27" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30">
+      <c r="A24" s="29">
         <v>45798</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="22"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="23" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="24"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="46" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="26"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="23" t="s">
+      <c r="A27" s="30"/>
+      <c r="B27" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="24"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="23" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="24"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="23" t="s">
+      <c r="A29" s="30"/>
+      <c r="B29" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="24"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
@@ -1680,87 +1667,87 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="27" t="s">
+      <c r="A31" s="30"/>
+      <c r="B31" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="30">
+      <c r="A32" s="29">
         <v>45799</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="22"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="26"/>
+      <c r="C33" s="24"/>
       <c r="D33" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="23" t="s">
+      <c r="A34" s="30"/>
+      <c r="B34" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="24"/>
+      <c r="C34" s="19"/>
       <c r="D34" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="23" t="s">
+      <c r="A35" s="30"/>
+      <c r="B35" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="24"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="47" t="s">
+      <c r="A36" s="30"/>
+      <c r="B36" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="48"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="32" t="s">
+      <c r="A37" s="30"/>
+      <c r="B37" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="33"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="23" t="s">
+      <c r="A38" s="30"/>
+      <c r="B38" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="24"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1774,56 +1761,56 @@
     </row>
     <row r="40" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31"/>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="36"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30">
+      <c r="A41" s="29">
         <v>45800</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="24"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="7">
         <v>2.5</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
-      <c r="B42" s="23" t="s">
+      <c r="A42" s="30"/>
+      <c r="B42" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="24"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="26"/>
+      <c r="C43" s="24"/>
       <c r="D43" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
-      <c r="B44" s="23" t="s">
+      <c r="A44" s="30"/>
+      <c r="B44" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="24"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
+      <c r="A45" s="30"/>
       <c r="B45" s="2" t="s">
         <v>6</v>
       </c>
@@ -1837,46 +1824,46 @@
     </row>
     <row r="46" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="31"/>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="36"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="28"/>
     </row>
     <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="30">
+      <c r="A47" s="29">
         <v>45803</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="22"/>
+      <c r="C47" s="33"/>
       <c r="D47" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="20"/>
+      <c r="A48" s="30"/>
       <c r="B48" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="26"/>
+      <c r="C48" s="24"/>
       <c r="D48" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="20"/>
-      <c r="B49" s="23" t="s">
+      <c r="A49" s="30"/>
+      <c r="B49" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="24"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="8">
         <v>4.5</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="20"/>
+      <c r="A50" s="30"/>
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
@@ -1890,46 +1877,46 @@
     </row>
     <row r="51" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="31"/>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="36"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="28"/>
     </row>
     <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="30">
+      <c r="A52" s="29">
         <v>45804</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="22"/>
+      <c r="C52" s="33"/>
       <c r="D52" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
+      <c r="A53" s="30"/>
       <c r="B53" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="26"/>
+      <c r="C53" s="24"/>
       <c r="D53" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
-      <c r="B54" s="23" t="s">
+      <c r="A54" s="30"/>
+      <c r="B54" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="24"/>
+      <c r="C54" s="19"/>
       <c r="D54" s="8">
         <v>4.5</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
+      <c r="A55" s="30"/>
       <c r="B55" s="2" t="s">
         <v>6</v>
       </c>
@@ -1943,228 +1930,202 @@
     </row>
     <row r="56" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="31"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="36"/>
+      <c r="B56" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="28"/>
     </row>
     <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="30">
+      <c r="A57" s="29">
         <v>45805</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="7"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="20"/>
-      <c r="B58" s="23"/>
+      <c r="B57" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="30"/>
+      <c r="B58" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="C58" s="24"/>
-      <c r="D58" s="8"/>
+      <c r="D58" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="20"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="8"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="8"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" s="2" t="s">
+      <c r="A60" s="30"/>
+      <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="9">
-        <f>SUM(D57:D61)</f>
+      <c r="D60" s="9">
+        <f>SUM(D57:D59)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="31"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="29">
+        <v>45807</v>
+      </c>
+      <c r="B62" s="32"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="30"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="30"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="30"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="30"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="30"/>
+      <c r="B67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="9">
+        <f>SUM(D62:D66)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="31"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="36"/>
-    </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="30">
-        <v>45807</v>
-      </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="7"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="20"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="8"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="20"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="8"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="20"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="8"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="20"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="8"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="20"/>
-      <c r="B69" s="2" t="s">
+    <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="30"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+    </row>
+    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="29">
+        <v>45810</v>
+      </c>
+      <c r="B69" s="32"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="30"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="30"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="30"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="30"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="30"/>
+      <c r="B74" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D69" s="9">
-        <f>SUM(D64:D68)</f>
+      <c r="D74" s="9">
+        <f>SUM(D69:D73)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="20"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="29"/>
-    </row>
-    <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="30">
-        <v>45810</v>
-      </c>
-      <c r="B71" s="21"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="7"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="20"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="8"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="20"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="8"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="20"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="8"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="20"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="8"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="20"/>
-      <c r="B76" s="2" t="s">
-        <v>6</v>
-      </c>
+    <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="31"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="28"/>
+    </row>
+    <row r="76" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="11"/>
+      <c r="B76" s="10"/>
       <c r="C76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="9">
-        <f>SUM(D71:D75)</f>
+        <v>7</v>
+      </c>
+      <c r="D76" s="12">
+        <f>D15+D22+D30+D39+D45+D50+D55+D60+D67+D74</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="46" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="31"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="36"/>
-    </row>
-    <row r="78" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="11"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" s="12">
-        <f>D15+D22+D30+D39+D45+D50+D55+D62+D69+D76</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B70:D70"/>
+  <mergeCells count="74">
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="A41:A46"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B5:C6"/>
@@ -2181,69 +2142,87 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="A7:A16"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A69:A75"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A62:A68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B27:C27"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D15 D24:D30 D32:D39 D41:D45 D47:D50 D52:D55">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="D7:D15 D24:D30 D32:D39 D41:D45 D47:D50 D52:D55 D57:D60">
+    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="8" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D22">
-    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="7" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="6" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57:D62">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D57)))</formula>
+  <conditionalFormatting sqref="D62:D67">
+    <cfRule type="containsText" dxfId="5" priority="15" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D57)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="16" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64:D69">
-    <cfRule type="containsText" dxfId="5" priority="15" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D64)))</formula>
+  <conditionalFormatting sqref="D69:D74">
+    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="16" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D64)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71:D76">
-    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D78">
+  <conditionalFormatting sqref="D76">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D78)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D78)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2256,7 +2235,7 @@
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="51" max="16383" man="1"/>
-    <brk id="78" max="3" man="1"/>
+    <brk id="76" max="3" man="1"/>
   </rowBreaks>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>

--- a/docs/PHAM_Journal_2025.xlsx
+++ b/docs/PHAM_Journal_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/esther_pham_studentfr_ch/Documents/4eme/TPI/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="412" documentId="13_ncr:1_{5F69E96A-935C-4229-A8D9-62578036D2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B42F18E-DA44-4890-B242-8CF5B7573BC9}"/>
+  <xr:revisionPtr revIDLastSave="440" documentId="13_ncr:1_{5F69E96A-935C-4229-A8D9-62578036D2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AADBB1C-840A-45D0-BDA2-1FF37E7F9903}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Journal!$A$6:$HI$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$G$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>Insérer les lignes au-dessus de celle-ci !</t>
   </si>
@@ -266,6 +266,24 @@
   </si>
   <si>
     <t>Création des requêtes CRUD et création de la page d'ajout/suppression des articles</t>
+  </si>
+  <si>
+    <t>Vendredi, je pourrai consacrer ma journée aux tests et aux améliorations du code. Je suis contente de enfin voir le projet se finir plus au moins dans les temps</t>
+  </si>
+  <si>
+    <t>Création de la page d'ajout/suppression des articles</t>
+  </si>
+  <si>
+    <t>Réalisation des tests de la conception</t>
+  </si>
+  <si>
+    <t>Documentation des tests</t>
+  </si>
+  <si>
+    <t>Visite du supérieur : 
+- Discussion de l'avancé
+- Suggestions d'améliorations du code
+- Discussion des dernières tâches à faire</t>
   </si>
 </sst>
 </file>
@@ -651,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -720,6 +738,26 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -728,6 +766,14 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -740,86 +786,74 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -832,49 +866,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1334,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1354,19 +1357,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="4">
         <v>151481</v>
       </c>
@@ -1396,109 +1399,109 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="36"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45">
+      <c r="A7" s="49">
         <v>45796</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="40"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1511,67 +1514,67 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="20" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="47">
+      <c r="A17" s="19">
         <v>45797</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="33"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="7">
         <v>2.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="8">
         <v>2.5</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="24"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="18" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="2" t="s">
         <v>6</v>
       </c>
@@ -1584,77 +1587,77 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="20" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="29">
+      <c r="A24" s="30">
         <v>45798</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="33"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="18" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="19"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="23" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="24"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="18" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="19"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="18" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
@@ -1667,87 +1670,87 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
-      <c r="B31" s="20" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="29">
+      <c r="A32" s="30">
         <v>45799</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="33"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="24"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
-      <c r="B34" s="18" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="19"/>
+      <c r="C34" s="24"/>
       <c r="D34" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
-      <c r="B35" s="18" t="s">
+      <c r="A35" s="20"/>
+      <c r="B35" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="19"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
-      <c r="B36" s="43" t="s">
+      <c r="A36" s="20"/>
+      <c r="B36" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="44"/>
+      <c r="C36" s="48"/>
       <c r="D36" s="8">
         <v>1.5</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="30"/>
-      <c r="B37" s="48" t="s">
+      <c r="A37" s="20"/>
+      <c r="B37" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="49"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
-      <c r="B38" s="18" t="s">
+      <c r="A38" s="20"/>
+      <c r="B38" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="19"/>
+      <c r="C38" s="24"/>
       <c r="D38" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
@@ -1761,56 +1764,56 @@
     </row>
     <row r="40" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31"/>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="28"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="29">
+      <c r="A41" s="30">
         <v>45800</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="19"/>
+      <c r="C41" s="24"/>
       <c r="D41" s="7">
         <v>2.5</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="30"/>
-      <c r="B42" s="18" t="s">
+      <c r="A42" s="20"/>
+      <c r="B42" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="19"/>
+      <c r="C42" s="24"/>
       <c r="D42" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="30"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="24"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="30"/>
-      <c r="B44" s="18" t="s">
+      <c r="A44" s="20"/>
+      <c r="B44" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="19"/>
+      <c r="C44" s="24"/>
       <c r="D44" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="30"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="2" t="s">
         <v>6</v>
       </c>
@@ -1824,46 +1827,46 @@
     </row>
     <row r="46" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="31"/>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="28"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="36"/>
     </row>
     <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="29">
+      <c r="A47" s="30">
         <v>45803</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="33"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="30"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="24"/>
+      <c r="C48" s="26"/>
       <c r="D48" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="30"/>
-      <c r="B49" s="18" t="s">
+      <c r="A49" s="20"/>
+      <c r="B49" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="19"/>
+      <c r="C49" s="24"/>
       <c r="D49" s="8">
         <v>4.5</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="30"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
@@ -1877,46 +1880,46 @@
     </row>
     <row r="51" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="31"/>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="28"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="36"/>
     </row>
     <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="29">
+      <c r="A52" s="30">
         <v>45804</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="33"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="111.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="30"/>
+      <c r="A53" s="20"/>
       <c r="B53" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="24"/>
+      <c r="C53" s="26"/>
       <c r="D53" s="8">
         <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="30"/>
-      <c r="B54" s="18" t="s">
+      <c r="A54" s="20"/>
+      <c r="B54" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="19"/>
+      <c r="C54" s="24"/>
       <c r="D54" s="8">
         <v>4.5</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="30"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="2" t="s">
         <v>6</v>
       </c>
@@ -1930,46 +1933,46 @@
     </row>
     <row r="56" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="31"/>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="28"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="36"/>
     </row>
     <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="29">
+      <c r="A57" s="30">
         <v>45805</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="19"/>
+      <c r="C57" s="24"/>
       <c r="D57" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="30"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="24"/>
+      <c r="C58" s="26"/>
       <c r="D58" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="30"/>
-      <c r="B59" s="18" t="s">
+      <c r="A59" s="20"/>
+      <c r="B59" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="19"/>
+      <c r="C59" s="24"/>
       <c r="D59" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="30"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
@@ -1983,149 +1986,186 @@
     </row>
     <row r="61" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="31"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="28"/>
+      <c r="B61" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="35"/>
+      <c r="D61" s="36"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="29">
+      <c r="A62" s="30">
         <v>45807</v>
       </c>
-      <c r="B62" s="32"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="7"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="30"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="8"/>
+      <c r="B62" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="24"/>
+      <c r="D62" s="7">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="20"/>
+      <c r="B63" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="51"/>
+      <c r="D63" s="8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="30"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="8"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="D64" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="30"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="8"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="24"/>
+      <c r="D65" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="30"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="8"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="30"/>
-      <c r="B67" s="2" t="s">
+      <c r="A66" s="20"/>
+      <c r="B66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="9">
-        <f>SUM(D62:D66)</f>
+      <c r="D66" s="9">
+        <f>SUM(D62:D65)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="20"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="29"/>
+    </row>
+    <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="30">
+        <v>45810</v>
+      </c>
+      <c r="B68" s="21"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="20"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="20"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="20"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="20"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="20"/>
+      <c r="B73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="9">
+        <f>SUM(D68:D72)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="30"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="22"/>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="29">
-        <v>45810</v>
-      </c>
-      <c r="B69" s="32"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="7"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="30"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="8"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="30"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="30"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="8"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="30"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="8"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="30"/>
-      <c r="B74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="9">
-        <f>SUM(D69:D73)</f>
+    <row r="74" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="31"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="36"/>
+    </row>
+    <row r="75" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="11"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="12">
+        <f>D15+D22+D30+D39+D45+D50+D55+D60+D66+D73</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="31"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="28"/>
-    </row>
-    <row r="76" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="11"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="12">
-        <f>D15+D22+D30+D39+D45+D50+D55+D60+D67+D74</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="46"/>
-      <c r="C77" s="46"/>
-      <c r="D77" s="46"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B28:C28"/>
+  <mergeCells count="73">
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A68:A74"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B67:D67"/>
     <mergeCell ref="A41:A46"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B5:C6"/>
@@ -2142,87 +2182,53 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="A7:A16"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A69:A75"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A62:A68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B28:C28"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D15 D24:D30 D32:D39 D41:D45 D47:D50 D52:D55 D57:D60">
-    <cfRule type="containsText" dxfId="9" priority="23" operator="containsText" text="Terminé">
+  <conditionalFormatting sqref="D7:D15 D24:D30 D32:D39 D41:D45 D47:D50 D52:D55 D57:D60 D62:D66">
+    <cfRule type="containsText" dxfId="7" priority="23" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="24" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="6" priority="24" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D22">
-    <cfRule type="containsText" dxfId="7" priority="21" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="5" priority="21" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="22" operator="containsText" text="En cours">
+    <cfRule type="containsText" dxfId="4" priority="22" operator="containsText" text="En cours">
       <formula>NOT(ISERROR(SEARCH("En cours",D17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62:D67">
-    <cfRule type="containsText" dxfId="5" priority="15" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
+  <conditionalFormatting sqref="D68:D73">
+    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",D68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="16" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",D68)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69:D74">
-    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D69)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="14" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D69)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D76">
+  <conditionalFormatting sqref="D75">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D75)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2235,7 +2241,7 @@
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="51" max="16383" man="1"/>
-    <brk id="76" max="3" man="1"/>
+    <brk id="75" max="3" man="1"/>
   </rowBreaks>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
